--- a/biology/Zoologie/Brachistosternus_pentheri/Brachistosternus_pentheri.xlsx
+++ b/biology/Zoologie/Brachistosternus_pentheri/Brachistosternus_pentheri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachistosternus pentheri est une espèce de scorpions de la famille des Bothriuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Argentine[1].Elle se rencontre dans les provinces de Buenos Aires, de Río Negro, de La Pampa, de Mendoza, de San Juan, de San Luis, de Córdoba, de La Rioja, de Catamarca et de Salta.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Argentine.Elle se rencontre dans les provinces de Buenos Aires, de Río Negro, de La Pampa, de Mendoza, de San Juan, de San Luis, de Córdoba, de La Rioja, de Catamarca et de Salta.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 64,89 mm et la femelle paratype 67,16 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 64,89 mm et la femelle paratype 67,16 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Arnold Penther[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Arnold Penther.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mello-Leitão, 1931 : Notas sobre os Bothriuridae Sul-Americanos. Arquivos do Museu Nacional, vol. 33, p. 75–105.</t>
         </is>
